--- a/data/Difficult_level_generated_dataset.xlsx
+++ b/data/Difficult_level_generated_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,14 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Describe the steps you would take to clean and prepare a dataset for analysis.</t>
+          <t>Describe a situation where you had to deal with missing data in a dataset and how you handled it.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: Technical
-The first step in cleaning and preparing a dataset for analysis is to assess the quality of the data. This involves checking for missing values, outliers, and inconsistencies. Once the quality of the data is assessed, the next step is to handle any missing values by either imputing or removing them. After that, it is important to address any outliers by deciding whether to keep or remove them based on the context of the analysis. The next step is to standardize or normalize the data to bring them to a common scale. Finally, it is important to check for and handle any inconsistencies in the data, such as duplicate records. 
-</t>
+          <t>Technical question</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -472,54 +470,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tell me about a time when you faced challenges in communicating and presenting your data analysis findings to non-technical stakeholders. How did you overcome those challenges?</t>
+          <t>How would you explain the concept of p-value to a non-technical stakeholder?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: Behavioral
-Approach: When answering this question, the interviewer is looking for traits such as the candidate's ability to effectively communicate complex analysis findings to non-technical stakeholders, their adaptability in tailoring the message to suit the audience's level of understanding, and their ability to make the findings relevant and actionable for the stakeholders. Keywords to keep in mind when structuring the answer include: effective communication, simplifying complex concepts, adaptability, and making information actionable. 
-Real-World Example: In a previous project, I had to present the findings of a customer segmentation analysis to the marketing team. To overcome the challenge of presenting complex concepts, I prepared a visually appealing and easily understandable slide deck. I focused on simplifying the technical jargon and explaining the results in simple terms. Additionally, I provided concrete recommendations for marketing strategies based on the analysis, making the findings actionable for the team. This approach helped me effectively communicate the insights and gain their buy-in for implementing the recommended strategies. 
-</t>
+          <t>Technical question</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Technical</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Explain the concept of dimensionality reduction and its importance in data analysis.</t>
+          <t>Tell me about a time when you had to present complex data analysis findings to a non-technical audience. How did you ensure understanding?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: Technical
-Dimensionality reduction refers to the process of reducing the number of input variables or features in a dataset while preserving the most relevant information. It is important in data analysis because high-dimensional datasets can pose challenges such as increased computational complexity, the curse of dimensionality, and reduced interpretability. By reducing the dimensionality of the dataset, we can simplify the analysis, improve computational efficiency, and enhance interpretability by visualizing the data in lower-dimensional space. Dimensionality reduction techniques, such as principal component analysis (PCA) and t-SNE, help in identifying and retaining the most informative features while discarding the less important ones. These techniques help in extracting meaningful patterns and structures from the data while reducing noise and redundant information. Overall, dimensionality reduction plays a crucial role in data analysis by enabling efficient and effective exploration and interpretation of high-dimensional datasets.
-</t>
+          <t>Behavioral question</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Technical</t>
+          <t>Behavioral</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tell me about a time when you had to deal with a large and complex dataset. How did you approach the analysis?</t>
+          <t>Describe a situation where you faced resistance to your data analysis recommendations. How did you handle it?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: Behavioral
-Approach: When answering this question, the interviewer is looking for traits such as the candidate's ability to handle and analyze large and complex datasets, their proficiency in data manipulation and transformation techniques, and their problem-solving skills in identifying efficient analysis approaches. Keywords to focus on when structuring the answer include: data handling, data manipulation, problem-solving, and efficient analysis.
-Real-World Example: In a previous project, I had to analyze a large and complex dataset containing customer transaction records. To approach the analysis, I first assessed the structure and quality of the data. I applied data manipulation techniques, such as filtering, aggregating, and joining, to transform the dataset into a manageable format. Then, I performed exploratory data analysis to gain insights into the variables and relationships. To handle the computational complexity, I utilized parallel processing techniques and optimized the code for efficiency. This approach allowed me to successfully extract meaningful patterns and derive actionable insights from the large and complex dataset.
-</t>
+          <t>Behavioral question</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -531,14 +521,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Explain the concept of hypothesis testing and its role in data analysis.</t>
+          <t>Explain the difference between supervised and unsupervised learning algorithms.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: Technical
-Hypothesis testing is a statistical method used to make inferences or conclusions about a population based on sample data. It involves formulating two competing hypotheses: the null hypothesis (H0) and the alternative hypothesis (Ha). The null hypothesis represents the default or no effect scenario, while the alternative hypothesis represents the specific hypothesis to be tested. Hypothesis testing guides the decision-making process by providing a framework to assess the plausibility of the alternative hypothesis based on the sample data. It involves selecting an appropriate test statistic, defining the significance level (alpha), calculating the p-value, and making a decision to reject or fail to reject the null hypothesis. Hypothesis testing plays a crucial role in data analysis as it allows analysts to draw conclusions, make inferences, and support or refute claims using statistical evidence.
-</t>
+          <t>Technical question</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -550,20 +538,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tell me about a time when you had to collaborate with a cross-functional team to solve a data analysis problem. How did you contribute to the team and what was the outcome?</t>
+          <t>Tell me about a time when you had to analyze a large dataset and what steps you took to ensure accuracy and efficiency.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: Behavioral
-Approach: When answering this question, the interviewer is looking for traits such as the candidate's ability to work collaboratively in a team, their communication and interpersonal skills, their flexibility and adaptability in working with diverse backgrounds, and their problem-solving and decision-making abilities. Keywords to keep in mind when structuring the answer include: collaboration, communication, adaptability, problem-solving, and positive outcomes.
-Real-World Example: In a previous project, I collaborated with a cross-functional team comprising data scientists, engineers, and business analysts to address a complex forecasting problem. I contributed by sharing my expertise in statistical modeling techniques and providing insights on data availability and quality. I actively participated in team meetings, where I communicated my findings, proposed ideas, and sought feedback. Through collaborative brainstorming and iterative analysis, we developed a robust forecasting model that significantly improved accuracy and achieved positive business outcomes. Our successful teamwork showcased the power of diverse perspectives and skills in solving complex data analysis problems.
-</t>
+          <t>Behavioral question</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Behavioral</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>How would you handle a situation where your analysis revealed unexpected results?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Behavioral question</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Behavioral</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Explain the concept of data normalization and its importance in statistical analysis.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Technical question</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Describe a time when you had to work on a data analysis project with strict deadlines. How did you prioritize your tasks?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Behavioral question</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Behavioral</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>How would you approach selecting the right machine learning algorithm for a given problem?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Technical question</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Technical</t>
         </is>
       </c>
     </row>
